--- a/debug/4.xlsx
+++ b/debug/4.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -514,49 +514,49 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221021101</v>
+        <v>221021029</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AA19000004002</t>
+          <t>A115067108002</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>離心扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>190APA11H1C2A-01000</t>
+          <t>15KMR23BTHF-0001</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12/1 MT 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>44896</v>
+        <v>44893</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>製4-41-28-1</t>
+          <t>中19-11-15-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="M2" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -569,49 +569,49 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>221021054</v>
+        <v>221021024</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AB20000208023</t>
+          <t>AA22000008201</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*離心扇</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>200BMB23H1C2A-00061</t>
+          <t>220APA23H2C2A-00000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J3" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>製7-46-30-1</t>
+          <t>製4-42-28-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -624,49 +624,49 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>221021106</v>
+        <v>221021025</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AA18000008305</t>
+          <t>AA31801008001</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>離心扇00</t>
+          <t>*離心扇</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>180(55)APA23H2C2A-09000</t>
+          <t>318AAA23H1C4A-00000</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>製4-40-28-1</t>
+          <t>製3-37-33-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,29 +679,29 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>221021027</v>
+        <v>221021086</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AD16000408001</t>
+          <t>A115067108006</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>*鼓風扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>160DPB23H1S2A-00000</t>
+          <t>15KMR23BWHF-02510002</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J5" s="2" t="n">
@@ -709,19 +709,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>製2-36-7-1</t>
+          <t>中20-11-15-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -734,29 +734,29 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>221021024</v>
+        <v>221014034</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AA22000008201</t>
+          <t>A115067108006</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>*離心扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>220APA23H2C2A-00000</t>
+          <t>15KMR23BWHF-02510002</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J6" s="2" t="n">
@@ -764,19 +764,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>製4-42-28-1</t>
+          <t>中20-11-15-1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -789,49 +789,49 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>221021076</v>
+        <v>221021098</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AB25000708001</t>
+          <t>AC20001704002</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>250BMA23H1C2A-00000</t>
+          <t>T200BMB11H1D4A-09000</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J7" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>製7-44-30-1</t>
+          <t>製7-47-30-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -844,49 +844,49 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>221021086</v>
+        <v>221021101</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A115067108006</t>
+          <t>AA19000004002</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>離心扇</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15KMR23BWHF-02510002</t>
+          <t>190APA11H1C2A-01000</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>12/1 MT 2248</t>
         </is>
       </c>
       <c r="J8" s="2" t="n">
-        <v>44893</v>
+        <v>44896</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>中20-11-15-1</t>
+          <t>製4-41-28-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="M8" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -899,49 +899,49 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221021056</v>
+        <v>221021027</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A125491108001</t>
+          <t>AD16000408001</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>*鼓風扇</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25HC23BTH0-0001</t>
+          <t>160DPB23H1S2A-00000</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J9" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>大20-23-25-1</t>
+          <t>製2-36-7-1</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -954,49 +954,49 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>221021098</v>
+        <v>221021076</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AC20001704002</t>
+          <t>AB25000708001</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>T200BMB11H1D4A-09000</t>
+          <t>250BMA23H1C2A-00000</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J10" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>製7-47-30-1</t>
+          <t>製7-44-30-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="M10" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1005,103 +1005,158 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>221021025</v>
+        <v>220909024</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AA31801008001</t>
+          <t>AA22000008209</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>*離心扇</t>
+          <t>離心扇</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>318AAA23H1C4A-00000</t>
+          <t>220APA23H2C2A-01000</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>12/1 MT 2248</t>
         </is>
       </c>
       <c r="J11" s="2" t="n">
-        <v>44893</v>
+        <v>44896</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>製3-37-33-1</t>
+          <t>製4-42-28-1</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>220909024</v>
+        <v>221021106</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AA22000008209</t>
+          <t>AA18000008305</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>離心扇</t>
+          <t>離心扇00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>220APA23H2C2A-01000</t>
+          <t>180(55)APA23H2C2A-09000</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12/1 MT 2248</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J12" s="2" t="n">
-        <v>44896</v>
+        <v>44894</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>製4-42-28-1</t>
+          <t>製4-40-28-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M12" t="n">
-        <v>103</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2022/11/22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2022/11/22</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>221021054</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AB20000208023</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200BMB23H1C2A-00061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>80</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>製7-46-30-1</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
